--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\munna\InteliiJ\web-automationFinalbootcamp-Mahbubul\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8CC914-3C3B-4C13-B8DB-A87CEDA4FA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EB71C9-A3E2-4837-98B0-91088491A7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2904" yWindow="576" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <t>passWord</t>
   </si>
   <si>
-    <t>Admin123</t>
+    <t>admin123</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
